--- a/mf-intelligence/data/separated_files/nippon/Nippon India ELSS Tax Saver Fund/Nippon India ELSS Tax Saver Fund_Jan_2026.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India ELSS Tax Saver Fund/Nippon India ELSS Tax Saver Fund_Jan_2026.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -2463,17 +2463,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BTVL03</t>
+          <t>BINL01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>IN9397D01014</t>
+          <t>INE121J01017</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited- Partly Paid up</t>
+          <t>Indus Towers Limited</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2482,79 +2482,47 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2290000</v>
+        <v>2838087</v>
       </c>
       <c r="F64" t="n">
-        <v>35817.89</v>
+        <v>12609.62</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0241</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BINL01</t>
+          <t>INAV01</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>INE121J01017</t>
+          <t>INE646L01027</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Indus Towers Limited</t>
+          <t>InterGlobe Aviation Limited</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Telecom - Services</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2838087</v>
+        <v>463628</v>
       </c>
       <c r="F65" t="n">
-        <v>12609.62</v>
+        <v>21310.66</v>
       </c>
       <c r="G65" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0143</v>
       </c>
       <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>INAV01</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>INE646L01027</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>InterGlobe Aviation Limited</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Transport Services</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>463628</v>
-      </c>
-      <c r="F66" t="n">
-        <v>21310.66</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
